--- a/data/trans_orig/P2404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4686EC-88C0-4ABE-AF84-E732135680C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA19D9A-4A62-43A8-B834-6E7856E22E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A527A1C8-C291-455C-82DD-51722AAA03AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CBA2349-4953-47A7-A223-81EC8A9CC887}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="310">
   <si>
     <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,745 +76,739 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>91,9%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -823,175 +817,157 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>98,84%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977E9F83-D8A5-4513-8FBD-47E5C9AFB157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5F95CF-16FB-4D80-A206-379EE3CF82A0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2308,7 +2284,7 @@
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2323,7 +2299,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2338,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2332,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -2371,7 +2347,7 @@
         <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2386,7 +2362,7 @@
         <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -2457,13 +2433,13 @@
         <v>73673</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2472,13 +2448,13 @@
         <v>31944</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>102</v>
@@ -2487,13 +2463,13 @@
         <v>105617</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2484,13 @@
         <v>1311608</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>815</v>
@@ -2523,13 +2499,13 @@
         <v>831386</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>2092</v>
@@ -2538,13 +2514,13 @@
         <v>2142995</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2576,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC486D0-1EDA-4B6A-8BB4-BF120943A982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE55881C-CE40-4C17-A3AE-C04C0F2EDEE9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2746,13 +2722,13 @@
         <v>25145</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2761,13 +2737,13 @@
         <v>6818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -2776,13 +2752,13 @@
         <v>31963</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2773,13 @@
         <v>140000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
         <v>135</v>
@@ -2812,13 +2788,13 @@
         <v>140412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>274</v>
@@ -2827,13 +2803,13 @@
         <v>280412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2877,13 @@
         <v>44828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2916,13 +2892,13 @@
         <v>3020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2931,13 +2907,13 @@
         <v>47848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2928,13 @@
         <v>304336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -2967,13 +2943,13 @@
         <v>244389</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
         <v>529</v>
@@ -2982,13 +2958,13 @@
         <v>548724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3032,13 @@
         <v>9854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3071,13 +3047,13 @@
         <v>5629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3086,13 +3062,13 @@
         <v>15483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3083,13 @@
         <v>315476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3122,13 +3098,13 @@
         <v>242610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>531</v>
@@ -3137,13 +3113,13 @@
         <v>558086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3187,13 @@
         <v>2033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3226,13 +3202,13 @@
         <v>1078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3241,13 +3217,13 @@
         <v>3111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,10 +3238,10 @@
         <v>277749</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>63</v>
@@ -3277,10 +3253,10 @@
         <v>238372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
@@ -3292,13 +3268,13 @@
         <v>516122</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3342,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3387,7 +3363,7 @@
         <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3396,13 +3372,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,10 +3393,10 @@
         <v>155383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>63</v>
@@ -3435,7 +3411,7 @@
         <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3447,10 +3423,10 @@
         <v>223212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>63</v>
@@ -3527,7 +3503,7 @@
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3542,7 +3518,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3557,7 +3533,7 @@
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3551,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3590,7 +3566,7 @@
         <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3605,7 +3581,7 @@
         <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -3676,13 +3652,13 @@
         <v>82847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3691,13 +3667,13 @@
         <v>16545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -3706,13 +3682,13 @@
         <v>99392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3703,13 @@
         <v>1271249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>879</v>
@@ -3742,13 +3718,13 @@
         <v>956644</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>2073</v>
@@ -3757,13 +3733,13 @@
         <v>2227892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3795,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601EED78-F8EE-4EC9-885D-5E35F56F83A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE448A-9400-42C5-B0FC-4FC2460C01CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3858,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3965,13 +3941,13 @@
         <v>23985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3980,13 +3956,13 @@
         <v>5516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -3995,13 +3971,13 @@
         <v>29501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +3992,13 @@
         <v>126521</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -4031,13 +4007,13 @@
         <v>118592</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>239</v>
@@ -4046,13 +4022,13 @@
         <v>245114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4096,13 @@
         <v>23128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4135,13 +4111,13 @@
         <v>12400</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4150,13 +4126,13 @@
         <v>35527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4147,13 @@
         <v>288829</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>268</v>
@@ -4186,13 +4162,13 @@
         <v>260461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>542</v>
@@ -4201,13 +4177,13 @@
         <v>549291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4251,13 @@
         <v>17240</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4290,13 +4266,13 @@
         <v>3573</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4305,13 +4281,13 @@
         <v>20813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4302,13 @@
         <v>334669</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -4341,13 +4317,13 @@
         <v>314217</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -4356,13 +4332,13 @@
         <v>648886</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4406,13 @@
         <v>20195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4451,7 +4427,7 @@
         <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4460,13 +4436,13 @@
         <v>20195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4457,13 @@
         <v>385672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4499,7 +4475,7 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4511,13 +4487,13 @@
         <v>718076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4561,13 @@
         <v>1041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4606,7 +4582,7 @@
         <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4615,13 +4591,13 @@
         <v>2860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,10 +4612,10 @@
         <v>304708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>63</v>
@@ -4654,7 +4630,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>63</v>
@@ -4666,10 +4642,10 @@
         <v>486413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>63</v>
@@ -4746,7 +4722,7 @@
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4761,7 +4737,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4776,7 +4752,7 @@
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4770,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4809,7 +4785,7 @@
         <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4824,7 +4800,7 @@
         <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4895,13 +4871,13 @@
         <v>85588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -4910,13 +4886,13 @@
         <v>23308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4925,13 +4901,13 @@
         <v>108896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4922,13 @@
         <v>1785021</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>1232</v>
@@ -4961,13 +4937,13 @@
         <v>1281522</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M23" s="7">
         <v>2917</v>
@@ -4976,13 +4952,13 @@
         <v>3066543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,7 +5014,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA19D9A-4A62-43A8-B834-6E7856E22E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{411E4418-099B-468C-AB47-F1797AD6568B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CBA2349-4953-47A7-A223-81EC8A9CC887}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30F6A88E-A3AB-45DA-BC4C-8F47026CFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="312">
   <si>
     <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>87,14%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,49 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>96,53%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,355 +190,373 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,06%</t>
+    <t>94,69%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -553,22 +565,16 @@
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>0,6%</t>
@@ -577,25 +583,19 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>97,42%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -613,6 +613,9 @@
     <t>0,44%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -625,6 +628,9 @@
     <t>99,56%</t>
   </si>
   <si>
+    <t>97,63%</t>
+  </si>
+  <si>
     <t>2,77%</t>
   </si>
   <si>
@@ -646,169 +652,169 @@
     <t>6,12%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>93,88%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>99,0%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>92,05%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>1,12%</t>
@@ -817,31 +823,31 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,82%</t>
+    <t>3,04%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,18%</t>
+    <t>96,96%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -850,66 +856,66 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>7,73%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>92,27%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>97,89%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
@@ -925,49 +931,49 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5F95CF-16FB-4D80-A206-379EE3CF82A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903F49A-2FBE-4F3C-A453-9A3AB2AB2F27}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1679,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -1688,13 +1694,13 @@
         <v>51786</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,13 +1715,13 @@
         <v>362706</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>211</v>
@@ -1724,13 +1730,13 @@
         <v>218410</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>562</v>
@@ -1739,13 +1745,13 @@
         <v>581116</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,7 +1807,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1813,13 +1819,13 @@
         <v>5951</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1828,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1843,13 +1849,13 @@
         <v>5951</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1870,13 @@
         <v>335022</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -1879,10 +1885,10 @@
         <v>257461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -1894,13 +1900,13 @@
         <v>592483</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1962,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1968,13 +1974,13 @@
         <v>4031</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1983,13 +1989,13 @@
         <v>3319</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1998,13 +2004,13 @@
         <v>7349</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +2025,13 @@
         <v>230704</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -2034,13 +2040,13 @@
         <v>141647</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -2049,13 +2055,13 @@
         <v>372352</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2117,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2123,13 +2129,13 @@
         <v>908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2138,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2153,13 +2159,13 @@
         <v>908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2180,13 @@
         <v>127783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2189,10 +2195,10 @@
         <v>46888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2204,13 +2210,13 @@
         <v>174670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2272,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2278,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2293,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2308,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,10 +2335,10 @@
         <v>75826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -2344,7 +2350,7 @@
         <v>11220</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>101</v>
@@ -2359,7 +2365,7 @@
         <v>87046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>102</v>
@@ -2598,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE55881C-CE40-4C17-A3AE-C04C0F2EDEE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9ABB82-2B61-457E-B317-2CF3AC1716CB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,10 +2731,10 @@
         <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2737,13 +2743,13 @@
         <v>6818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -2752,13 +2758,13 @@
         <v>31963</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2779,13 @@
         <v>140000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>135</v>
@@ -2788,13 +2794,13 @@
         <v>140412</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>274</v>
@@ -2803,13 +2809,13 @@
         <v>280412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2883,13 @@
         <v>44828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2892,13 +2898,13 @@
         <v>3020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2907,13 +2913,13 @@
         <v>47848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2934,13 @@
         <v>304336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -2943,13 +2949,13 @@
         <v>244389</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>529</v>
@@ -2958,13 +2964,13 @@
         <v>548724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3026,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3038,13 @@
         <v>9854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3047,13 +3053,13 @@
         <v>5629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3062,13 +3068,13 @@
         <v>15483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3089,13 @@
         <v>315476</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3098,13 +3104,13 @@
         <v>242610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>531</v>
@@ -3113,13 +3119,13 @@
         <v>558086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3181,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3187,13 +3193,13 @@
         <v>2033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3202,13 +3208,13 @@
         <v>1078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3217,13 +3223,13 @@
         <v>3111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3244,13 @@
         <v>277749</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -3253,13 +3259,13 @@
         <v>238372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>450</v>
@@ -3330,7 +3336,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3345,7 +3351,7 @@
         <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>188</v>
@@ -3357,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>189</v>
@@ -3375,10 +3381,10 @@
         <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3399,13 @@
         <v>155383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -3408,10 +3414,10 @@
         <v>67829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3423,13 +3429,13 @@
         <v>223212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,7 +3491,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3497,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3512,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3527,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,10 +3554,10 @@
         <v>78306</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3563,10 +3569,10 @@
         <v>23031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3578,10 +3584,10 @@
         <v>101337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -3652,13 +3658,13 @@
         <v>82847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3667,13 +3673,13 @@
         <v>16545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -3682,13 +3688,13 @@
         <v>99392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3709,13 @@
         <v>1271249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>879</v>
@@ -3718,13 +3724,13 @@
         <v>956644</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M23" s="7">
         <v>2073</v>
@@ -3733,13 +3739,13 @@
         <v>2227892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE448A-9400-42C5-B0FC-4FC2460C01CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF075027-6332-46CC-BFF8-2B1FFC72E7FA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3834,7 +3840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3941,13 +3947,13 @@
         <v>23985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3956,13 +3962,13 @@
         <v>5516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -3971,13 +3977,13 @@
         <v>29501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3998,13 @@
         <v>126521</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -4007,13 +4013,13 @@
         <v>118592</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>239</v>
@@ -4022,13 +4028,13 @@
         <v>245114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4102,13 @@
         <v>23128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4111,13 +4117,13 @@
         <v>12400</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4126,13 +4132,13 @@
         <v>35527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4153,13 @@
         <v>288829</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>268</v>
@@ -4162,13 +4168,13 @@
         <v>260461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>542</v>
@@ -4177,13 +4183,13 @@
         <v>549291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4245,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4251,13 +4257,13 @@
         <v>17240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4266,13 +4272,13 @@
         <v>3573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4281,13 +4287,13 @@
         <v>20813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4308,13 @@
         <v>334669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -4317,13 +4323,13 @@
         <v>314217</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -4332,13 +4338,13 @@
         <v>648886</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,7 +4400,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4406,13 +4412,13 @@
         <v>20195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4421,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>187</v>
@@ -4436,13 +4442,13 @@
         <v>20195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4463,13 @@
         <v>385672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4472,10 +4478,10 @@
         <v>332404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4487,13 +4493,13 @@
         <v>718076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,7 +4555,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4564,7 +4570,7 @@
         <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>283</v>
@@ -4576,10 +4582,10 @@
         <v>1819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>284</v>
@@ -4594,10 +4600,10 @@
         <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4618,13 @@
         <v>304708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>155</v>
@@ -4627,13 +4633,13 @@
         <v>181704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -4642,13 +4648,13 @@
         <v>486413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4710,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4716,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4731,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4746,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,10 +4773,10 @@
         <v>344620</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -4782,10 +4788,10 @@
         <v>74144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4797,10 +4803,10 @@
         <v>418764</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4871,13 +4877,13 @@
         <v>85588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -4886,13 +4892,13 @@
         <v>23308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4901,13 +4907,13 @@
         <v>108896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4928,13 @@
         <v>1785021</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H23" s="7">
         <v>1232</v>
@@ -4937,13 +4943,13 @@
         <v>1281522</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>2917</v>
@@ -4952,13 +4958,13 @@
         <v>3066543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{411E4418-099B-468C-AB47-F1797AD6568B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B254DF6-8826-4283-9C9B-395014C4A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30F6A88E-A3AB-45DA-BC4C-8F47026CFC06}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5035FF93-FDF9-4EFF-84A6-C64156721361}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="312">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="278">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,64 +70,64 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>94,63%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,844 +136,742 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903F49A-2FBE-4F3C-A453-9A3AB2AB2F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB0E02E-226B-41AC-9105-3F849155AA5D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>179</v>
+        <v>471</v>
       </c>
       <c r="D5" s="7">
-        <v>179568</v>
+        <v>466526</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1569,10 +1467,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="I5" s="7">
-        <v>155760</v>
+        <v>454363</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1584,10 +1482,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>344</v>
+        <v>947</v>
       </c>
       <c r="N5" s="7">
-        <v>335328</v>
+        <v>920889</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1605,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>206</v>
+        <v>498</v>
       </c>
       <c r="D6" s="7">
-        <v>206064</v>
+        <v>493022</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1620,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>489</v>
       </c>
       <c r="I6" s="7">
-        <v>168886</v>
+        <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1635,10 +1533,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>384</v>
+        <v>987</v>
       </c>
       <c r="N6" s="7">
-        <v>374950</v>
+        <v>960511</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1685,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -1694,13 +1592,13 @@
         <v>51786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,10 +1607,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>351</v>
+        <v>668</v>
       </c>
       <c r="D8" s="7">
-        <v>362706</v>
+        <v>699202</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1724,31 +1622,31 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>211</v>
+        <v>577</v>
       </c>
       <c r="I8" s="7">
-        <v>218410</v>
+        <v>609994</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>562</v>
+        <v>1245</v>
       </c>
       <c r="N8" s="7">
-        <v>581116</v>
+        <v>1309196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1760,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>386</v>
+        <v>703</v>
       </c>
       <c r="D9" s="7">
-        <v>398993</v>
+        <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1673,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>225</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>233910</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1790,10 +1688,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>611</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="7">
-        <v>632902</v>
+        <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1864,10 +1762,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>608</v>
       </c>
       <c r="D11" s="7">
-        <v>335022</v>
+        <v>632717</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1879,10 +1777,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>658</v>
       </c>
       <c r="I11" s="7">
-        <v>257461</v>
+        <v>689744</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1894,10 +1792,10 @@
         <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>569</v>
+        <v>1266</v>
       </c>
       <c r="N11" s="7">
-        <v>592483</v>
+        <v>1322461</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>63</v>
@@ -1915,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>340973</v>
+        <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1930,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>247</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>257461</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1945,10 +1843,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>574</v>
+        <v>1271</v>
       </c>
       <c r="N12" s="7">
-        <v>598434</v>
+        <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1992,10 +1890,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2004,13 +1902,13 @@
         <v>7349</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,49 +1917,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>215</v>
+        <v>480</v>
       </c>
       <c r="D14" s="7">
-        <v>230704</v>
+        <v>515116</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>499</v>
+      </c>
+      <c r="I14" s="7">
+        <v>512323</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>136</v>
-      </c>
-      <c r="I14" s="7">
-        <v>141647</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7">
+        <v>979</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1027440</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="7">
-        <v>351</v>
-      </c>
-      <c r="N14" s="7">
-        <v>372352</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>234735</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2085,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="I15" s="7">
-        <v>144966</v>
+        <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2100,10 +1998,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>358</v>
+        <v>986</v>
       </c>
       <c r="N15" s="7">
-        <v>379701</v>
+        <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2117,7 +2015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2129,13 +2027,13 @@
         <v>908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2150,7 +2048,7 @@
         <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2159,13 +2057,13 @@
         <v>908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,46 +2072,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="D17" s="7">
-        <v>127783</v>
+        <v>385802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="I17" s="7">
-        <v>46888</v>
+        <v>403986</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>175</v>
+        <v>787</v>
       </c>
       <c r="N17" s="7">
-        <v>174670</v>
+        <v>789788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>61</v>
@@ -2225,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>128691</v>
+        <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2240,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>46888</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2255,10 +2153,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>176</v>
+        <v>788</v>
       </c>
       <c r="N18" s="7">
-        <v>175578</v>
+        <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2272,7 +2170,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2290,7 +2188,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2305,7 +2203,7 @@
         <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2320,7 +2218,7 @@
         <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,46 +2227,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="D20" s="7">
-        <v>75826</v>
+        <v>502466</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="I20" s="7">
-        <v>11220</v>
+        <v>676842</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>91</v>
+        <v>1184</v>
       </c>
       <c r="N20" s="7">
-        <v>87046</v>
+        <v>1179308</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -2380,10 +2278,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>75826</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2395,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="I21" s="7">
-        <v>11220</v>
+        <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2410,10 +2308,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>91</v>
+        <v>1184</v>
       </c>
       <c r="N21" s="7">
-        <v>87046</v>
+        <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2439,13 +2337,13 @@
         <v>73673</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2454,13 +2352,13 @@
         <v>31944</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>102</v>
@@ -2469,13 +2367,13 @@
         <v>105617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,49 +2382,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1277</v>
+        <v>3141</v>
       </c>
       <c r="D23" s="7">
-        <v>1311608</v>
+        <v>3201828</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3267</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3347254</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="7">
+        <v>6408</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6549081</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="7">
-        <v>815</v>
-      </c>
-      <c r="I23" s="7">
-        <v>831386</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2142995</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,10 +2433,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2550,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I24" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2565,10 +2463,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2582,7 +2480,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9ABB82-2B61-457E-B317-2CF3AC1716CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020299F-DC7F-4E0B-A5F4-A47478C5108E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2621,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2728,13 +2626,13 @@
         <v>25145</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2743,13 +2641,13 @@
         <v>6818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -2758,13 +2656,13 @@
         <v>31963</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,49 +2671,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="D5" s="7">
-        <v>140000</v>
+        <v>428061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="I5" s="7">
-        <v>140412</v>
+        <v>421474</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
-        <v>274</v>
+        <v>831</v>
       </c>
       <c r="N5" s="7">
-        <v>280412</v>
+        <v>849535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,10 +2722,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="D6" s="7">
-        <v>165145</v>
+        <v>453206</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2839,10 +2737,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>142</v>
+        <v>419</v>
       </c>
       <c r="I6" s="7">
-        <v>147230</v>
+        <v>428292</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2854,10 +2752,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>307</v>
+        <v>864</v>
       </c>
       <c r="N6" s="7">
-        <v>312375</v>
+        <v>881498</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2883,13 +2781,13 @@
         <v>44828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2898,13 +2796,13 @@
         <v>3020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -2913,13 +2811,13 @@
         <v>47848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,49 +2826,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>299</v>
+        <v>629</v>
       </c>
       <c r="D8" s="7">
-        <v>304336</v>
+        <v>642259</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
-        <v>230</v>
+        <v>567</v>
       </c>
       <c r="I8" s="7">
-        <v>244389</v>
+        <v>606110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
-        <v>529</v>
+        <v>1196</v>
       </c>
       <c r="N8" s="7">
-        <v>548724</v>
+        <v>1248370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,10 +2877,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>337</v>
+        <v>667</v>
       </c>
       <c r="D9" s="7">
-        <v>349164</v>
+        <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2994,10 +2892,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>233</v>
+        <v>570</v>
       </c>
       <c r="I9" s="7">
-        <v>247409</v>
+        <v>609130</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3009,10 +2907,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>570</v>
+        <v>1237</v>
       </c>
       <c r="N9" s="7">
-        <v>596572</v>
+        <v>1296218</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3038,13 +2936,13 @@
         <v>9854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3053,13 +2951,13 @@
         <v>5629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3068,13 +2966,13 @@
         <v>15483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,49 +2981,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="D11" s="7">
-        <v>315476</v>
+        <v>670979</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>661</v>
       </c>
       <c r="I11" s="7">
-        <v>242610</v>
+        <v>704235</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
-        <v>531</v>
+        <v>1303</v>
       </c>
       <c r="N11" s="7">
-        <v>558086</v>
+        <v>1375214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3032,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="D12" s="7">
-        <v>325330</v>
+        <v>680833</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3149,10 +3047,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>234</v>
+        <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>248239</v>
+        <v>709864</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3164,10 +3062,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>544</v>
+        <v>1316</v>
       </c>
       <c r="N12" s="7">
-        <v>573569</v>
+        <v>1390697</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3193,13 +3091,13 @@
         <v>2033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3208,13 +3106,13 @@
         <v>1078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3223,13 +3121,13 @@
         <v>3111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,49 +3136,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>245</v>
+        <v>546</v>
       </c>
       <c r="D14" s="7">
-        <v>277749</v>
+        <v>612584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>537</v>
       </c>
       <c r="I14" s="7">
-        <v>238372</v>
+        <v>614107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>450</v>
+        <v>1083</v>
       </c>
       <c r="N14" s="7">
-        <v>516122</v>
+        <v>1226690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,10 +3187,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>247</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7">
-        <v>279782</v>
+        <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3304,10 +3202,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>206</v>
+        <v>538</v>
       </c>
       <c r="I15" s="7">
-        <v>239450</v>
+        <v>615185</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3319,10 +3217,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>1086</v>
       </c>
       <c r="N15" s="7">
-        <v>519233</v>
+        <v>1229801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3336,7 +3234,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3348,13 +3246,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3369,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3378,13 +3276,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,46 +3291,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>141</v>
+        <v>392</v>
       </c>
       <c r="D17" s="7">
-        <v>155383</v>
+        <v>428443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>406</v>
       </c>
       <c r="I17" s="7">
-        <v>67829</v>
+        <v>447800</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>201</v>
+        <v>798</v>
       </c>
       <c r="N17" s="7">
-        <v>223212</v>
+        <v>876243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>61</v>
@@ -3444,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="D18" s="7">
-        <v>156369</v>
+        <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3459,10 +3357,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>406</v>
       </c>
       <c r="I18" s="7">
-        <v>67829</v>
+        <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3474,10 +3372,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>202</v>
+        <v>799</v>
       </c>
       <c r="N18" s="7">
-        <v>224198</v>
+        <v>877229</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3491,7 +3389,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3509,7 +3407,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3524,7 +3422,7 @@
         <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3539,7 +3437,7 @@
         <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,46 +3446,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>68</v>
+        <v>504</v>
       </c>
       <c r="D20" s="7">
-        <v>78306</v>
+        <v>559637</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>694</v>
       </c>
       <c r="I20" s="7">
-        <v>23031</v>
+        <v>742975</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>88</v>
+        <v>1198</v>
       </c>
       <c r="N20" s="7">
-        <v>101337</v>
+        <v>1302612</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -3599,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>68</v>
+        <v>504</v>
       </c>
       <c r="D21" s="7">
-        <v>78306</v>
+        <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3614,10 +3512,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>20</v>
+        <v>694</v>
       </c>
       <c r="I21" s="7">
-        <v>23031</v>
+        <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3629,10 +3527,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>88</v>
+        <v>1198</v>
       </c>
       <c r="N21" s="7">
-        <v>101337</v>
+        <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3658,13 +3556,13 @@
         <v>82847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3673,13 +3571,13 @@
         <v>16545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -3688,13 +3586,13 @@
         <v>99392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3601,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1194</v>
+        <v>3132</v>
       </c>
       <c r="D23" s="7">
-        <v>1271249</v>
+        <v>3341961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
-        <v>879</v>
+        <v>3277</v>
       </c>
       <c r="I23" s="7">
-        <v>956644</v>
+        <v>3536701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
-        <v>2073</v>
+        <v>6409</v>
       </c>
       <c r="N23" s="7">
-        <v>2227892</v>
+        <v>6878662</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1269</v>
+        <v>3207</v>
       </c>
       <c r="D24" s="7">
-        <v>1354096</v>
+        <v>3424808</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3769,10 +3667,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>895</v>
+        <v>3293</v>
       </c>
       <c r="I24" s="7">
-        <v>973189</v>
+        <v>3553246</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3784,10 +3682,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2164</v>
+        <v>6500</v>
       </c>
       <c r="N24" s="7">
-        <v>2327284</v>
+        <v>6978054</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3801,7 +3699,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF075027-6332-46CC-BFF8-2B1FFC72E7FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4086C329-E709-4750-BE97-5B18F66966DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3840,7 +3738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3947,13 +3845,13 @@
         <v>23985</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3962,13 +3860,13 @@
         <v>5516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -3977,13 +3875,13 @@
         <v>29501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,49 +3890,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>368</v>
       </c>
       <c r="D5" s="7">
-        <v>126521</v>
+        <v>393281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="I5" s="7">
-        <v>118592</v>
+        <v>388746</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
-        <v>239</v>
+        <v>766</v>
       </c>
       <c r="N5" s="7">
-        <v>245114</v>
+        <v>782026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,10 +3941,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="D6" s="7">
-        <v>150506</v>
+        <v>417266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4058,10 +3956,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="I6" s="7">
-        <v>124108</v>
+        <v>394262</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4073,10 +3971,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="N6" s="7">
-        <v>274615</v>
+        <v>811527</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4102,13 +4000,13 @@
         <v>23128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4117,13 +4015,13 @@
         <v>12400</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4132,13 +4030,13 @@
         <v>35527</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,49 +4045,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>274</v>
+        <v>543</v>
       </c>
       <c r="D8" s="7">
-        <v>288829</v>
+        <v>565457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>268</v>
+        <v>566</v>
       </c>
       <c r="I8" s="7">
-        <v>260461</v>
+        <v>550215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>542</v>
+        <v>1109</v>
       </c>
       <c r="N8" s="7">
-        <v>549291</v>
+        <v>1115672</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>296</v>
+        <v>565</v>
       </c>
       <c r="D9" s="7">
-        <v>311957</v>
+        <v>588585</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4213,10 +4111,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>578</v>
       </c>
       <c r="I9" s="7">
-        <v>272861</v>
+        <v>562615</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4228,10 +4126,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>576</v>
+        <v>1143</v>
       </c>
       <c r="N9" s="7">
-        <v>584818</v>
+        <v>1151199</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4257,13 +4155,13 @@
         <v>17240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4272,13 +4170,13 @@
         <v>3573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4287,13 +4185,13 @@
         <v>20813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,49 +4200,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>314</v>
+        <v>619</v>
       </c>
       <c r="D11" s="7">
-        <v>334669</v>
+        <v>650785</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>658</v>
       </c>
       <c r="I11" s="7">
-        <v>314217</v>
+        <v>654980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>631</v>
+        <v>1277</v>
       </c>
       <c r="N11" s="7">
-        <v>648886</v>
+        <v>1305765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,10 +4251,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>637</v>
       </c>
       <c r="D12" s="7">
-        <v>351909</v>
+        <v>668025</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4368,10 +4266,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>662</v>
       </c>
       <c r="I12" s="7">
-        <v>317790</v>
+        <v>658553</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4383,10 +4281,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>1299</v>
       </c>
       <c r="N12" s="7">
-        <v>669699</v>
+        <v>1326578</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4412,13 +4310,13 @@
         <v>20195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4433,7 +4331,7 @@
         <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4442,13 +4340,13 @@
         <v>20195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,49 +4355,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>345</v>
+        <v>562</v>
       </c>
       <c r="D14" s="7">
-        <v>385672</v>
+        <v>623136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="I14" s="7">
-        <v>332404</v>
+        <v>646961</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>650</v>
+        <v>1162</v>
       </c>
       <c r="N14" s="7">
-        <v>718076</v>
+        <v>1270097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>580</v>
       </c>
       <c r="D15" s="7">
-        <v>405867</v>
+        <v>643331</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4523,10 +4421,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="I15" s="7">
-        <v>332404</v>
+        <v>646961</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4538,10 +4436,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>668</v>
+        <v>1180</v>
       </c>
       <c r="N15" s="7">
-        <v>738271</v>
+        <v>1290292</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4555,7 +4453,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4567,13 +4465,13 @@
         <v>1041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4582,13 +4480,13 @@
         <v>1819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4597,13 +4495,13 @@
         <v>2860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,46 +4510,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="D17" s="7">
-        <v>304708</v>
+        <v>475839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="7">
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>181704</v>
+        <v>493921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="7">
-        <v>426</v>
+        <v>853</v>
       </c>
       <c r="N17" s="7">
-        <v>486413</v>
+        <v>969760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>61</v>
@@ -4663,10 +4561,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="D18" s="7">
-        <v>305749</v>
+        <v>476880</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4678,10 +4576,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="I18" s="7">
-        <v>183523</v>
+        <v>495740</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4693,10 +4591,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>428</v>
+        <v>855</v>
       </c>
       <c r="N18" s="7">
-        <v>489273</v>
+        <v>972620</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4710,7 +4608,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4728,7 +4626,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4743,7 +4641,7 @@
         <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4758,7 +4656,7 @@
         <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,46 +4665,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>363</v>
+        <v>625</v>
       </c>
       <c r="D20" s="7">
-        <v>344620</v>
+        <v>589518</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>66</v>
+        <v>654</v>
       </c>
       <c r="I20" s="7">
-        <v>74144</v>
+        <v>776646</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>429</v>
+        <v>1279</v>
       </c>
       <c r="N20" s="7">
-        <v>418764</v>
+        <v>1366163</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4818,10 +4716,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>363</v>
+        <v>625</v>
       </c>
       <c r="D21" s="7">
-        <v>344620</v>
+        <v>589518</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4833,10 +4731,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>66</v>
+        <v>654</v>
       </c>
       <c r="I21" s="7">
-        <v>74144</v>
+        <v>776646</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4848,10 +4746,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>429</v>
+        <v>1279</v>
       </c>
       <c r="N21" s="7">
-        <v>418764</v>
+        <v>1366163</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4877,13 +4775,13 @@
         <v>85588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -4892,13 +4790,13 @@
         <v>23308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -4907,13 +4805,13 @@
         <v>108896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,49 +4820,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1685</v>
+        <v>3139</v>
       </c>
       <c r="D23" s="7">
-        <v>1785021</v>
+        <v>3298016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>1232</v>
+        <v>3307</v>
       </c>
       <c r="I23" s="7">
-        <v>1281522</v>
+        <v>3511468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
-        <v>2917</v>
+        <v>6446</v>
       </c>
       <c r="N23" s="7">
-        <v>3066543</v>
+        <v>6809484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,10 +4871,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1767</v>
+        <v>3221</v>
       </c>
       <c r="D24" s="7">
-        <v>1870609</v>
+        <v>3383604</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4988,10 +4886,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>1254</v>
+        <v>3329</v>
       </c>
       <c r="I24" s="7">
-        <v>1304830</v>
+        <v>3534776</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5003,10 +4901,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>3021</v>
+        <v>6550</v>
       </c>
       <c r="N24" s="7">
-        <v>3175439</v>
+        <v>6918380</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5020,7 +4918,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
